--- a/database/AN_pp/expdata/3001.xlsx
+++ b/database/AN_pp/expdata/3001.xlsx
@@ -8,19 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/avp5627/GIT/jam3d/database/AN_pp/expdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ED33C73-6084-B442-9EAD-67BA8797A184}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E236B025-B40A-6F40-BB36-049551DEB415}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9180" yWindow="5440" windowWidth="24100" windowHeight="14460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="16">
   <si>
     <t>xF</t>
   </si>
@@ -62,6 +72,12 @@
   </si>
   <si>
     <t>AN</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>&lt;y&gt;</t>
   </si>
 </sst>
 </file>
@@ -93,7 +109,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -165,11 +181,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -179,6 +206,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -517,15 +547,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" zoomScale="146" zoomScaleNormal="146" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -556,8 +586,14 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>0.161746</v>
       </c>
@@ -588,8 +624,16 @@
       <c r="J2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K2">
+        <f>LOG((A2*F2/E2+SQRT((A2*F2/E2)^2+4))/2)</f>
+        <v>1.5475931759931938</v>
+      </c>
+      <c r="L2">
+        <f>AVERAGE(K1:K8)</f>
+        <v>1.6064511866444184</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.18166599999999999</v>
       </c>
@@ -620,8 +664,12 @@
       <c r="J3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K3">
+        <f t="shared" ref="K3:K8" si="0">LOG((A3*F3/E3+SQRT((A3*F3/E3)^2+4))/2)</f>
+        <v>1.517656470416018</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0.201631</v>
       </c>
@@ -652,8 +700,12 @@
       <c r="J4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K4">
+        <f t="shared" si="0"/>
+        <v>1.5257725210925617</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0.22153</v>
       </c>
@@ -684,8 +736,12 @@
       <c r="J5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K5">
+        <f t="shared" si="0"/>
+        <v>1.5645529935731968</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0.24485499999999999</v>
       </c>
@@ -716,8 +772,12 @@
       <c r="J6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K6">
+        <f t="shared" si="0"/>
+        <v>1.6304366380025708</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0.27740100000000001</v>
       </c>
@@ -748,8 +808,12 @@
       <c r="J7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K7">
+        <f t="shared" si="0"/>
+        <v>1.6969699643156311</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>0.32396399999999997</v>
       </c>
@@ -780,12 +844,16 @@
       <c r="J8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K8">
+        <f t="shared" si="0"/>
+        <v>1.7621765431177561</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
       <c r="D9" s="5"/>
     </row>
-    <row r="10" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="2"/>
       <c r="C10" s="3"/>

--- a/database/AN_pp/expdata/3001.xlsx
+++ b/database/AN_pp/expdata/3001.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/avp5627/GIT/jam3d/database/AN_pp/expdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E236B025-B40A-6F40-BB36-049551DEB415}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E85FD0F-4C18-5347-8CB6-270DB6D4121F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9180" yWindow="5440" windowWidth="24100" windowHeight="14460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23320" yWindow="6620" windowWidth="24100" windowHeight="14460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="19">
   <si>
     <t>xF</t>
   </si>
@@ -78,13 +78,22 @@
   </si>
   <si>
     <t>&lt;y&gt;</t>
+  </si>
+  <si>
+    <t>xfmin</t>
+  </si>
+  <si>
+    <t>xfmax</t>
+  </si>
+  <si>
+    <t>Dependence</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,6 +105,18 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -196,7 +217,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -209,6 +230,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -547,15 +575,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="146" zoomScaleNormal="146" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="O2" sqref="O2:O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -592,8 +620,17 @@
       <c r="L1" s="7" t="s">
         <v>15</v>
       </c>
+      <c r="M1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>0.161746</v>
       </c>
@@ -606,8 +643,8 @@
       <c r="D2" s="4">
         <v>1.1389E-3</v>
       </c>
-      <c r="E2" s="2">
-        <v>2.2938200000000002</v>
+      <c r="E2" s="8">
+        <v>3.0949399999999998</v>
       </c>
       <c r="F2">
         <v>500</v>
@@ -626,14 +663,23 @@
       </c>
       <c r="K2">
         <f>LOG((A2*F2/E2+SQRT((A2*F2/E2)^2+4))/2)</f>
-        <v>1.5475931759931938</v>
+        <v>1.4177859629087404</v>
       </c>
       <c r="L2">
         <f>AVERAGE(K1:K8)</f>
-        <v>1.6064511866444184</v>
+        <v>1.4835761832957988</v>
+      </c>
+      <c r="M2" s="9">
+        <v>0.152</v>
+      </c>
+      <c r="N2" s="12">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="O2" t="s">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.18166599999999999</v>
       </c>
@@ -646,8 +692,8 @@
       <c r="D3" s="5">
         <v>1.72084E-3</v>
       </c>
-      <c r="E3">
-        <v>2.7605</v>
+      <c r="E3" s="8">
+        <v>3.28009</v>
       </c>
       <c r="F3">
         <v>500</v>
@@ -666,10 +712,19 @@
       </c>
       <c r="K3">
         <f t="shared" ref="K3:K8" si="0">LOG((A3*F3/E3+SQRT((A3*F3/E3)^2+4))/2)</f>
-        <v>1.517656470416018</v>
+        <v>1.4429231220545984</v>
+      </c>
+      <c r="M3" s="10">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="N3" s="13">
+        <v>0.192</v>
+      </c>
+      <c r="O3" t="s">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0.201631</v>
       </c>
@@ -682,8 +737,8 @@
       <c r="D4" s="5">
         <v>1.9476599999999999E-3</v>
       </c>
-      <c r="E4">
-        <v>3.00705</v>
+      <c r="E4" s="8">
+        <v>3.45024</v>
       </c>
       <c r="F4">
         <v>500</v>
@@ -702,10 +757,19 @@
       </c>
       <c r="K4">
         <f t="shared" si="0"/>
-        <v>1.5257725210925617</v>
+        <v>1.4661857720758122</v>
+      </c>
+      <c r="M4" s="10">
+        <v>0.192</v>
+      </c>
+      <c r="N4" s="13">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="O4" t="s">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0.22153</v>
       </c>
@@ -718,8 +782,8 @@
       <c r="D5" s="5">
         <v>2.0647999999999999E-4</v>
       </c>
-      <c r="E5">
-        <v>3.02115</v>
+      <c r="E5" s="8">
+        <v>3.5977800000000002</v>
       </c>
       <c r="F5">
         <v>500</v>
@@ -738,10 +802,19 @@
       </c>
       <c r="K5">
         <f t="shared" si="0"/>
-        <v>1.5645529935731968</v>
+        <v>1.4888254181562433</v>
+      </c>
+      <c r="M5" s="10">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="N5" s="13">
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="O5" t="s">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0.24485499999999999</v>
       </c>
@@ -754,8 +827,8 @@
       <c r="D6" s="5">
         <v>1.4561999999999999E-3</v>
       </c>
-      <c r="E6">
-        <v>2.8686699999999998</v>
+      <c r="E6" s="8">
+        <v>3.8115700000000001</v>
       </c>
       <c r="F6">
         <v>500</v>
@@ -774,10 +847,19 @@
       </c>
       <c r="K6">
         <f t="shared" si="0"/>
-        <v>1.6304366380025708</v>
+        <v>1.5071954239306768</v>
+      </c>
+      <c r="M6" s="10">
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="N6" s="13">
+        <v>0.26</v>
+      </c>
+      <c r="O6" t="s">
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0.27740100000000001</v>
       </c>
@@ -790,8 +872,8 @@
       <c r="D7" s="5">
         <v>4.0756000000000004E-3</v>
       </c>
-      <c r="E7">
-        <v>2.7879399999999999</v>
+      <c r="E7" s="8">
+        <v>4.1471200000000001</v>
       </c>
       <c r="F7">
         <v>500</v>
@@ -810,10 +892,19 @@
       </c>
       <c r="K7">
         <f t="shared" si="0"/>
-        <v>1.6969699643156311</v>
+        <v>1.5247191637954924</v>
+      </c>
+      <c r="M7" s="10">
+        <v>0.26</v>
+      </c>
+      <c r="N7" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="O7" t="s">
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>0.32396399999999997</v>
       </c>
@@ -826,8 +917,8 @@
       <c r="D8" s="6">
         <v>1.70499E-3</v>
       </c>
-      <c r="E8" s="3">
-        <v>2.8016899999999998</v>
+      <c r="E8" s="8">
+        <v>4.70364</v>
       </c>
       <c r="F8">
         <v>500</v>
@@ -846,14 +937,23 @@
       </c>
       <c r="K8">
         <f t="shared" si="0"/>
-        <v>1.7621765431177561</v>
+        <v>1.5373984201490278</v>
+      </c>
+      <c r="M8" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="N8" s="14">
+        <v>0.36</v>
+      </c>
+      <c r="O8" t="s">
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
       <c r="D9" s="5"/>
     </row>
-    <row r="10" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="2"/>
       <c r="C10" s="3"/>
